--- a/Data/EC/NIT-9012426536.xlsx
+++ b/Data/EC/NIT-9012426536.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0FC552-CB99-48E3-9367-8F0DE256F383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECBBE75-640B-4FC9-8845-D950BEBA4FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB2F4D86-39E2-4720-A922-A24EED468918}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{84AAD912-EEEC-4EAB-BB3D-29017E910157}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,127 +71,130 @@
     <t>JOSE LUIS PEREZ</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -235,7 +238,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54DDCDA-A15B-7D4B-827C-888932ED8F45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3D0BB0-41F5-FFB3-9360-C5323BCD9CB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,32 +959,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2427DCBC-D019-4379-B239-809FE3D3B4D6}">
-  <dimension ref="B2:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA8EC2-B33A-4D33-B744-EDD7177E2200}">
+  <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +993,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1001,7 +1004,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1012,7 +1015,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1023,10 +1026,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1039,8 +1042,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1055,15 +1058,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1640000</v>
+        <v>1680000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1071,27 +1074,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1111,16 +1114,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1146,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1169,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1192,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1215,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1238,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1261,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1284,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1307,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1330,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1353,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1376,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1422,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1445,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1465,7 +1468,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1491,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1514,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1537,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1560,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1583,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1606,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1629,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1649,7 +1652,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1675,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1698,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1718,7 +1721,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1744,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1767,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1790,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1810,7 +1813,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1833,7 +1836,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1859,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1879,7 +1882,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1902,7 +1905,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1925,7 +1928,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1974,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +1997,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2020,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2040,43 +2043,55 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="22" t="s">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G56" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F56" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G57" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C62" s="32"/>
       <c r="H62" s="1" t="s">
@@ -2085,12 +2100,23 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="H63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H63:J63"/>
     <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H61:J61"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012426536.xlsx
+++ b/Data/EC/NIT-9012426536.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECBBE75-640B-4FC9-8845-D950BEBA4FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F1597E-D5F0-4DD3-A93C-CF39E2462970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{84AAD912-EEEC-4EAB-BB3D-29017E910157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6138B33F-B111-407C-A1F1-5778758BF1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,130 +71,133 @@
     <t>JOSE LUIS PEREZ</t>
   </si>
   <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -293,7 +296,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +311,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +511,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +555,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3D0BB0-41F5-FFB3-9360-C5323BCD9CB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FD9079-C157-1B3F-B8D5-4687884012E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,8 +962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA8EC2-B33A-4D33-B744-EDD7177E2200}">
-  <dimension ref="B2:J63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2E7DB3-6485-4C68-8BF3-60721FC54C09}">
+  <dimension ref="B2:J64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -984,7 +987,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1029,7 +1032,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1061,12 +1064,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1680000</v>
+        <v>1720000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1077,17 +1080,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1114,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -2067,42 +2070,54 @@
       <c r="J56" s="20"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="22" t="s">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G57" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="H62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="F57" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G58" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C63" s="32"/>
       <c r="H63" s="1" t="s">
@@ -2111,12 +2126,23 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="H64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="H64:J64"/>
     <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H62:J62"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
